--- a/steigenberger/src/main/resources/ordersummaryreport.xlsx
+++ b/steigenberger/src/main/resources/ordersummaryreport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\haier\steigenberger\steigenberger\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA0A79F-D82D-458D-9699-4B9FF773343E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D0715-9F1B-4DA1-838F-0A1E212429AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,6 +387,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -408,9 +417,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -750,13 +760,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection sqref="A1:AV1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
@@ -800,153 +810,153 @@
     <col min="48" max="48" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1092,8 +1102,6 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/steigenberger/src/main/resources/ordersummaryreport.xlsx
+++ b/steigenberger/src/main/resources/ordersummaryreport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\haier\steigenberger\steigenberger\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D0715-9F1B-4DA1-838F-0A1E212429AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E71E53-D275-4EF4-96AE-B8D89B13A436}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>${order.statusDesc}</t>
   </si>
   <si>
-    <t>${order.industryCodeName}</t>
-  </si>
-  <si>
     <t>${order.contractManager}</t>
   </si>
   <si>
@@ -357,6 +354,10 @@
   </si>
   <si>
     <t>${order.isConvenientStore == 1 ? "是" : "否"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${order.customerClazzName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AV1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,13 +974,13 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>94</v>
-      </c>
-      <c r="H2" t="s">
-        <v>95</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
@@ -1009,97 +1010,97 @@
         <v>61</v>
       </c>
       <c r="R2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" t="s">
         <v>62</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>63</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" t="s">
         <v>64</v>
       </c>
-      <c r="U2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" t="s">
         <v>66</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>72</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>79</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>80</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>82</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT2" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AU2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
